--- a/MachineCalculator/wwwroot/Machines.xlsx
+++ b/MachineCalculator/wwwroot/Machines.xlsx
@@ -6,36 +6,118 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Demo" sheetId="1" r:id="rId3"/>
+    <sheet name="Services" sheetId="1" r:id="rId3"/>
+    <sheet name="Machines" sheetId="2" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU_freq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU_freq total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAM total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDD total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IOPs total</t>
+  </si>
   <si>
     <t xml:space="preserve">CPU_cores</t>
   </si>
   <si>
-    <t xml:space="preserve">CPU_freq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IOPs</t>
+    <t xml:space="preserve">CPU_cores total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filler11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffffff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filler23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thjyj6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filler112323423sdfsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvvvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Totals: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application</t>
   </si>
   <si>
     <t xml:space="preserve">Running apps</t>
   </si>
   <si>
-    <t xml:space="preserve">filler2</t>
+    <t xml:space="preserve">ffffff, thjyj6, vvvvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffffff, thjyj6, vvvvv, asdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffffff, thjyj6, vvvvv, asdf, filler112323423sdfsdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffffff, thjyj6, vvvvv, asdf, filler112323423sdfsdf, filler11, filler23</t>
   </si>
 </sst>
 </file>
@@ -89,69 +171,788 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>111</v>
+      </c>
+      <c r="D4">
+        <v>111</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>111</v>
+      </c>
+      <c r="G4">
+        <v>111</v>
+      </c>
+      <c r="H4">
+        <v>111</v>
+      </c>
+      <c r="I4">
+        <v>444</v>
+      </c>
+      <c r="J4">
+        <v>444</v>
+      </c>
+      <c r="K4">
+        <v>444</v>
+      </c>
+      <c r="L4">
+        <v>444</v>
+      </c>
+      <c r="M4">
+        <v>444</v>
+      </c>
+      <c r="N4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>92</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>526</v>
+      </c>
+      <c r="J10">
+        <v>482</v>
+      </c>
+      <c r="K10">
+        <v>482</v>
+      </c>
+      <c r="L10">
+        <v>570</v>
+      </c>
+      <c r="M10">
+        <v>482</v>
+      </c>
+      <c r="N10">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>116</v>
+      </c>
+      <c r="D15">
+        <v>116</v>
+      </c>
+      <c r="E15">
+        <v>138</v>
+      </c>
+      <c r="F15">
+        <v>116</v>
+      </c>
+      <c r="G15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>117</v>
+      </c>
+      <c r="D16">
+        <v>117</v>
+      </c>
+      <c r="E16">
+        <v>139</v>
+      </c>
+      <c r="F16">
+        <v>117</v>
+      </c>
+      <c r="G16">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>118</v>
+      </c>
+      <c r="D17">
+        <v>118</v>
+      </c>
+      <c r="E17">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>118</v>
+      </c>
+      <c r="G17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>142</v>
+      </c>
+      <c r="C18">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>131</v>
+      </c>
+      <c r="E18">
+        <v>153</v>
+      </c>
+      <c r="F18">
+        <v>131</v>
+      </c>
+      <c r="G18">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>129</v>
+      </c>
+      <c r="B4">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>140</v>
+      </c>
+      <c r="E4">
+        <v>118</v>
+      </c>
+      <c r="F4">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>142</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>131</v>
+      </c>
+      <c r="D5">
+        <v>153</v>
+      </c>
+      <c r="E5">
+        <v>131</v>
+      </c>
+      <c r="F5">
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/MachineCalculator/wwwroot/Machines.xlsx
+++ b/MachineCalculator/wwwroot/Machines.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t xml:space="preserve">Services</t>
   </si>
@@ -60,25 +60,25 @@
     <t xml:space="preserve">CPU_cores total</t>
   </si>
   <si>
-    <t xml:space="preserve">filler11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffffff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filler23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thjyj6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filler112323423sdfsdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vvvvv</t>
+    <t xml:space="preserve">tt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tt3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big hdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tt2</t>
   </si>
   <si>
     <t xml:space="preserve">Totals: </t>
@@ -102,22 +102,19 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application</t>
   </si>
   <si>
     <t xml:space="preserve">Running apps</t>
   </si>
   <si>
-    <t xml:space="preserve">ffffff, thjyj6, vvvvv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffffff, thjyj6, vvvvv, asdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffffff, thjyj6, vvvvv, asdf, filler112323423sdfsdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffffff, thjyj6, vvvvv, asdf, filler112323423sdfsdf, filler11, filler23</t>
+    <t xml:space="preserve">t2, tt2</t>
   </si>
 </sst>
 </file>
@@ -224,40 +221,40 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>1100</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -265,43 +262,43 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -312,40 +309,40 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>12</v>
+        <v>50000</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>50000</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -353,43 +350,43 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -397,43 +394,43 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -441,43 +438,43 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -485,43 +482,43 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I9">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>92</v>
+        <v>900</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -529,22 +526,22 @@
         <v>22</v>
       </c>
       <c r="I10">
-        <v>526</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>482</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>570</v>
+        <v>55050</v>
       </c>
       <c r="M10">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>482</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -580,22 +577,22 @@
         <v>25</v>
       </c>
       <c r="B15">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>138</v>
+        <v>1100</v>
       </c>
       <c r="F15">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>116</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -603,22 +600,22 @@
         <v>26</v>
       </c>
       <c r="B16">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="F16">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -626,22 +623,22 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>140</v>
+        <v>50000</v>
       </c>
       <c r="F17">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>118</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -649,46 +646,76 @@
         <v>28</v>
       </c>
       <c r="B18">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>153</v>
+        <v>1900</v>
       </c>
       <c r="F18">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -696,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -709,122 +736,42 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -860,99 +807,145 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>1100</v>
       </c>
       <c r="E2">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>140</v>
+        <v>50000</v>
       </c>
       <c r="E4">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>153</v>
+        <v>1900</v>
       </c>
       <c r="E5">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
